--- a/bugs-tasks.xlsx
+++ b/bugs-tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>录音上传</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,14 @@
   </si>
   <si>
     <t>发消息时 badge number 也要从 user message 算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service Term</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,12 +112,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,7 +135,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -133,23 +147,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="11" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -478,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B13"/>
+  <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -508,7 +527,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -527,9 +546,19 @@
         <v>8</v>
       </c>
     </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="13" spans="1:2">
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/bugs-tasks.xlsx
+++ b/bugs-tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>录音上传</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,22 @@
   </si>
   <si>
     <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要侦测wifi是否有通，不然不知道发生什么事了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error message 机制(目前都 alert 英文，不好）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ionic 如何插入统计信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error message better than alert</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +138,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,7 +157,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -149,13 +171,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="19">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
@@ -163,12 +193,18 @@
     <cellStyle name="已瀏覽過的超連結" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超連結" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="17" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -497,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B14"/>
+  <dimension ref="A2:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -512,7 +548,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -528,37 +564,57 @@
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2">
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
